--- a/database/novoexport.xlsx
+++ b/database/novoexport.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,25 +506,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>26/03/2025</t>
+          <t>16/04/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>26/03/2025</t>
+          <t>16/04/2025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PAG SERV NBapp 564642970 20834</t>
+          <t>PIX TRANSF CLAUDIO R</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-100</v>
+        <v>-19</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -554,25 +554,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26/03/2025</t>
+          <t>02/04/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>26/03/2025</t>
+          <t>02/04/2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PAG SERV NBapp 564610192 20834</t>
+          <t>IOF</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-97</v>
+        <v>-216.4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -602,25 +602,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>26/03/2025</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>26/03/2025</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PAG SERV NBapp 564543447 20834</t>
+          <t>JUROS LIMITE DA CONTA</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-40</v>
+        <v>-494.49</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -650,25 +650,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>26/03/2025</t>
+          <t>31/03/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>26/03/2025</t>
+          <t>31/03/2025</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TRF IMEDIATA DE RAFAEL BEZERRA ABREU</t>
+          <t>PIX TRANSF ODAILDO29/03</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>-12</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -698,25 +698,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>26/03/2025</t>
+          <t>28/03/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>26/03/2025</t>
+          <t>28/03/2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TRF IMEDIATA DE Rafael Abreu</t>
+          <t>PIX QRS REALIZE CRE28/03</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>-197.77</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -746,25 +746,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>25/03/2025</t>
+          <t>28/03/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>25/03/2025</t>
+          <t>28/03/2025</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COMPRA MB CARTAO **** 062* CRC BRAGA           BRAGA</t>
+          <t>PIX TRANSF ULISSES28/03</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-65</v>
+        <v>-12</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -794,25 +794,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>25/03/2025</t>
+          <t>28/03/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>25/03/2025</t>
+          <t>28/03/2025</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TRF IMEDIATA DE Rafael Abreu</t>
+          <t>PIX TRANSF WANDERS28/03</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -842,25 +842,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>23/03/2025</t>
+          <t>28/03/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>24/03/2025</t>
+          <t>28/03/2025</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PAG SERV NBapp 564084307 20834</t>
+          <t>PIX TRANSF AERO ST28/03</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-100</v>
+        <v>-60</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -890,25 +890,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>23/03/2025</t>
+          <t>28/03/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>23/03/2025</t>
+          <t>28/03/2025</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TRF IMEDIATA DE Rafael Abreu</t>
+          <t>PIX QRS WISE BRASIL28/03</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>-7179.65</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -938,25 +938,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22/03/2025</t>
+          <t>28/03/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>22/03/2025</t>
+          <t>28/03/2025</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PAG SERV NBapp 563883290 20834</t>
+          <t>PIX TRANSF RAFAEL 28/03</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-200</v>
+        <v>1000</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -986,25 +986,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22/03/2025</t>
+          <t>27/03/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>22/03/2025</t>
+          <t>27/03/2025</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TRF IMEDIATA DE Rafael Abreu</t>
+          <t>DA  COSERN 0856927334</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>200</v>
+        <v>-2680.25</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -1034,25 +1034,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
+          <t>26/03/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
+          <t>26/03/2025</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PAG SERV NBapp 563776378 20834</t>
+          <t>PIX QRS WISE BRASIL26/03</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-500</v>
+        <v>-627.4400000000001</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -1082,25 +1082,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
+          <t>26/03/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
+          <t>26/03/2025</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PAG SERV NBapp 563767071 20834</t>
+          <t>PIX TRANSF DERMOPL26/03</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-969.89</v>
+        <v>350</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -1130,25 +1130,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
+          <t>26/03/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
+          <t>26/03/2025</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TRF IMEDIATA DE Rafael Abreu</t>
+          <t>PIX TRANSF RODRIGO26/03</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3000</v>
+        <v>-700</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1178,25 +1178,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
+          <t>26/03/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
+          <t>26/03/2025</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DEPOSITO NUMERARIO   (ATM)</t>
+          <t>PIX QRS WISE BRASIL26/03</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>350</v>
+        <v>-503.61</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1226,25 +1226,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
+          <t>26/03/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
+          <t>26/03/2025</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ NBapp 563787307 P/ Viana LOCALS</t>
+          <t>DA  VIVO - RN 3114043185</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-2424.71</v>
+        <v>-145</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1274,25 +1274,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
+          <t>25/03/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
+          <t>25/03/2025</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TRF IMEDIATA DE Rafael Abreu</t>
+          <t>INT /DARF 01250777537725</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>540</v>
+        <v>-132.15</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1322,25 +1322,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>20/03/2025</t>
+          <t>25/03/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>20/03/2025</t>
+          <t>25/03/2025</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ NBapp 563632403 P/ Viana LOCALS</t>
+          <t>INT /DARF 01250777538368</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-900</v>
+        <v>-609.9299999999999</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>20/03/2025</t>
+          <t>25/03/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>20/03/2025</t>
+          <t>25/03/2025</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TRF IMEDIATA DE Rafael Abreu</t>
+          <t>PIX QRS WISE BRASIL25/03</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>854</v>
+        <v>-1564.61</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1418,25 +1418,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>17/03/2025</t>
+          <t>25/03/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17/03/2025</t>
+          <t>25/03/2025</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ NBapp 562955074 P/ Viana LOCALS</t>
+          <t>PIX QRS WISE BRASIL25/03</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-1600</v>
+        <v>-813.67</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1466,25 +1466,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>17/03/2025</t>
+          <t>25/03/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17/03/2025</t>
+          <t>25/03/2025</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TRF IMEDIATA DE Rafael Abreu</t>
+          <t>PIX QRS WISE BRASIL25/03</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>777</v>
+        <v>-635.01</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1514,25 +1514,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>12/03/2025</t>
+          <t>24/03/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>11/03/2025</t>
+          <t>24/03/2025</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>IMPOSTO SELO S/ MANUTENCAO DE CONTA</t>
+          <t>PIX QRS WISE BRASIL23/03</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.4</v>
+        <v>-631.16</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1562,25 +1562,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>12/03/2025</t>
+          <t>24/03/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>11/03/2025</t>
+          <t>24/03/2025</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MANUTENCAO DE CONTA 360º/Nº1 - 12/02/2025 A 11/03/2025</t>
+          <t>PIX QRS WISE BRASIL22/03</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-9.9</v>
+        <v>-1262.41</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1610,25 +1610,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>21/03/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>21/03/2025</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TRF IMEDIATA DE RAFAEL BEZERRA DE ABREU</t>
+          <t>PIX QRS WISE BRASIL21/03</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1800</v>
+        <v>-3411.32</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1658,25 +1658,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>21/03/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>21/03/2025</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PAG SERV NBapp 561603345 20834</t>
+          <t>PIX TRANSF Levu Dr21/03</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-969.89</v>
+        <v>9800</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1706,25 +1706,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>02/03/2025</t>
+          <t>21/03/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>02/03/2025</t>
+          <t>21/03/2025</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ NBapp 559847164 P/ Viana LOCALS</t>
+          <t>SEGURO CARTAO</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-2391.98</v>
+        <v>-22.5</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1754,25 +1754,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01/03/2025</t>
+          <t>20/03/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/03/2025</t>
+          <t>20/03/2025</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TRF IMEDIATA DE Rafael Abreu</t>
+          <t>PIX TRANSF MAGALY 20/03</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2350</v>
+        <v>-5350</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1802,25 +1802,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>17/02/2025</t>
+          <t>20/03/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17/02/2025</t>
+          <t>20/03/2025</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PAG SERV NBapp 557193455 20834</t>
+          <t>PIX TRANSF GABRIEL20/03</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-689.49</v>
+        <v>-3054</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1850,25 +1850,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>14/02/2025</t>
+          <t>19/03/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14/02/2025</t>
+          <t>19/03/2025</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>TRF CRED SEPA+ DE VIANALOCALS DESPORTO AVENTURA,LDA</t>
+          <t>SISPAG PIX HARMONIA LOCACOES...</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>782.59</v>
+        <v>3000</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1898,25 +1898,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>12/02/2025</t>
+          <t>19/03/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>11/02/2025</t>
+          <t>19/03/2025</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>IMPOSTO SELO S/ MANUTENCAO DE CONTA</t>
+          <t>PIX TRANSF ESGMAX 19/03</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-0.34</v>
+        <v>4595</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1946,25 +1946,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>12/02/2025</t>
+          <t>17/03/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>11/02/2025</t>
+          <t>17/03/2025</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MANUTENCAO DE CONTA 360º/Nº1 - 12/01/2025 A 11/02/2025</t>
+          <t>PERS BLACK  3601-4817</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-8.5</v>
+        <v>-13240.94</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1994,25 +1994,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>05/02/2025</t>
+          <t>17/03/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>05/02/2025</t>
+          <t>17/03/2025</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>TRF NBapp 554892723 P/ Viana LOCALS</t>
+          <t>SISPAG PIX L SILVA R DE OLIV...</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-2311.1</v>
+        <v>1700</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2042,25 +2042,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>05/02/2025</t>
+          <t>17/03/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>05/02/2025</t>
+          <t>17/03/2025</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TRF IMEDIATA DE Rafael Abreu</t>
+          <t>PIX TRANSF CLAUDIO16/03</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2312</v>
+        <v>-19</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>NovoBanco</t>
+          <t>Itau</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -2084,6 +2084,2022 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>PIX TRANSF DIEGO Q13/03</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>PIX TRANSF BRAITNE13/03</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>-200</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>PIX TRANSF KALEB A13/03</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>-2000</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>PIX TRANSF NORMAND13/03</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>-700</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>PIX TRANSF GEOVANE13/03</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>-1100</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>PIX TRANSF DENYS G13/03</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>-448.5</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>PIX TRANSF ADRA CE13/03</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>-775</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>SISPAG PIX HARMONIA LOCACOES...</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>3800</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>SISPAG PIX HARMONIA LOCACOES...</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>3800</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>AUTOPERSONNALITE 40/48</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>-2005.21</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>PIX TRANSF DANIEL 09/03</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>PIX TRANSF DENNIS 10/03</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>-1547.52</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>PIX TRANSF Fernand09/03</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>-400</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>PIX TRANSF DANIEL 09/03</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>-113.24</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>PIX TRANSF 564166409/03</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>-320</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>PIX TRANSF Maria J09/03</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>193</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>PIX TRANSF B F F C09/03</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>-138</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>PIX TRANSF FRANCOI09/03</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>07/03/2025</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>07/03/2025</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>PIX TRANSF ALLAN F07/03</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>-670</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>07/03/2025</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>07/03/2025</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>PIX QRS BANCO CSF07/03</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>-515</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>07/03/2025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>07/03/2025</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>PIX TRANSF DENNIS 07/03</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>700</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>07/03/2025</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>07/03/2025</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>PIX TRANSF DENNIS 07/03</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>-4000</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>07/03/2025</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>07/03/2025</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>PIX TRANSF VerÃ´nic07/03</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>-1753.07</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>07/03/2025</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>07/03/2025</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>PIX TRANSF ANDREW 07/03</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>-3318</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>07/03/2025</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>07/03/2025</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>PIX TRANSF Felipe 07/03</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>07/03/2025</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>07/03/2025</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>PIX QRS MERCADO PAG07/03</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>-3669.06</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>06/03/2025</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>06/03/2025</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>SISPAG PIX HARMONIA LOCACOES...</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>8500</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>06/03/2025</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>06/03/2025</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>PIX TRANSF RODRIGO06/03</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>06/03/2025</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>06/03/2025</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>IOF</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>-263.8</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>06/03/2025</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>06/03/2025</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>CARTAO PERSONNALITE</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>-1440.29</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>JUROS LIMITE DA CONTA</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>-391.57</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>SISPAG PIX HARMONIA LOCACOES...</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>11800</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>PIX TRANSF J J RAC03/03</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>-57</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>PIX TRANSF FLAMBOY01/03</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>-35</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>PIX TRANSF Rhaldne01/03</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>PIX TRANSF Janilda02/03</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>-150</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>PIX TRANSF DENNIS 02/03</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>-198.71</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>PIX QRS ERIGLEISON 01/03</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>PIX TRANSF DANIEL 02/03</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>PIX TRANSF LUCAS C01/03</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>-600</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>PIX TRANSF SERGIO 05/03</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>-75</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>PIX TRANSF DANIEL 05/03</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Itau</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/novoexport.xlsx
+++ b/database/novoexport.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
